--- a/aplicativo/DADOS_CALCIO.xlsx
+++ b/aplicativo/DADOS_CALCIO.xlsx
@@ -13,14 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Semana 01" sheetId="1" r:id="rId1"/>
-    <sheet name="Semana 02 " sheetId="2" r:id="rId2"/>
+    <sheet name="Semana 02" sheetId="2" r:id="rId2"/>
     <sheet name="Semana 03" sheetId="3" r:id="rId3"/>
-    <sheet name="Semana 04 " sheetId="4" r:id="rId4"/>
+    <sheet name="Semana 04" sheetId="4" r:id="rId4"/>
     <sheet name="Semana 05" sheetId="5" r:id="rId5"/>
-    <sheet name="Semana 06 " sheetId="6" r:id="rId6"/>
-    <sheet name="Semana 07 " sheetId="7" r:id="rId7"/>
-    <sheet name="Semana 08 " sheetId="8" r:id="rId8"/>
-    <sheet name="Semana 09 " sheetId="9" r:id="rId9"/>
+    <sheet name="Semana 06" sheetId="6" r:id="rId6"/>
+    <sheet name="Semana 07" sheetId="7" r:id="rId7"/>
+    <sheet name="Semana 08" sheetId="8" r:id="rId8"/>
+    <sheet name="Semana 09" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -33047,7 +33047,7 @@
   <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/aplicativo/DADOS_CALCIO.xlsx
+++ b/aplicativo/DADOS_CALCIO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Semana 01" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="32">
   <si>
     <t>n</t>
   </si>
@@ -226,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -272,8 +272,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:L1048576"/>
+    <sheetView topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4789,9 +4790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25035,9 +25034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28972,7 +28969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
@@ -29612,7 +29609,7 @@
         <v>5112</v>
       </c>
       <c r="R8" s="1">
-        <v>4081</v>
+        <v>5081</v>
       </c>
       <c r="S8" s="1">
         <v>5.75</v>
@@ -30339,7 +30336,7 @@
         <v>5151.75</v>
       </c>
       <c r="R17" s="1">
-        <v>4149</v>
+        <v>5149</v>
       </c>
       <c r="S17" s="1">
         <v>5.51</v>
@@ -31148,7 +31145,7 @@
         <v>4580.5</v>
       </c>
       <c r="R27" s="1">
-        <v>5087</v>
+        <v>5097</v>
       </c>
       <c r="S27" s="1">
         <v>6.43</v>
@@ -33046,8 +33043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33156,49 +33153,52 @@
       <c r="A2" s="1">
         <v>15</v>
       </c>
-      <c r="B2" s="16">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="16">
-        <v>1</v>
-      </c>
-      <c r="E2" s="17">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
         <v>2.4649999999999999</v>
       </c>
-      <c r="F2" s="18">
-        <v>1</v>
-      </c>
-      <c r="G2" s="16">
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
         <v>62.78</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="1">
         <v>58.54</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="1">
         <v>43.45</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="1">
         <v>43.5</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="1">
         <v>43.81</v>
       </c>
-      <c r="M2" s="16">
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1">
         <v>1974</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="1">
         <v>2724</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="1">
         <v>4909</v>
       </c>
       <c r="P2" s="1">
         <v>4701</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="17">
         <f t="shared" ref="Q2:Q12" si="0">AVERAGE(M2:P2)</f>
         <v>3577</v>
       </c>
@@ -33237,43 +33237,46 @@
       <c r="A3" s="1">
         <v>43</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="1">
         <v>7</v>
       </c>
-      <c r="D3" s="16">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
         <v>5.4770000000000003</v>
       </c>
-      <c r="F3" s="18">
-        <v>1</v>
-      </c>
-      <c r="G3" s="16">
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
         <v>66.44</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="1">
         <v>57.74</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="1">
         <v>44.21</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="1">
         <v>45.05</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="1">
         <v>45.04</v>
       </c>
-      <c r="M3" s="16">
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1">
         <v>5289</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="1">
         <v>4973</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="1">
         <v>5251</v>
       </c>
       <c r="P3" s="1">
@@ -33318,53 +33321,56 @@
       <c r="A4" s="1">
         <v>36</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="16">
-        <v>1</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F4" s="18">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
         <v>61.98</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="1">
         <v>59.34</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="1">
         <v>42.78</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="1">
         <v>42.89</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="1">
         <v>42.81</v>
       </c>
-      <c r="M4" s="16">
+      <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1">
         <v>4965</v>
       </c>
-      <c r="N4" s="16">
-        <v>6194</v>
-      </c>
-      <c r="O4" s="16">
+      <c r="N4" s="1">
+        <v>5063</v>
+      </c>
+      <c r="O4" s="1">
         <v>6178</v>
       </c>
       <c r="P4" s="1">
         <v>5057</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="17">
         <f t="shared" si="0"/>
-        <v>5598.5</v>
-      </c>
-      <c r="R4" s="1">
+        <v>5315.75</v>
+      </c>
+      <c r="R4" s="14">
         <v>5023</v>
       </c>
       <c r="S4" s="1">
@@ -33399,53 +33405,56 @@
       <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
         <v>1.552</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="9">
         <v>2</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="1">
         <v>61.67</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="1">
         <v>61.56</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="1">
         <v>42.75</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="1">
         <v>42.56</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="1">
         <v>42.61</v>
       </c>
-      <c r="M5" s="16">
-        <v>2249</v>
-      </c>
-      <c r="N5" s="16">
+      <c r="L5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="1">
         <v>5167</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="1">
         <v>5162</v>
       </c>
       <c r="P5" s="1">
         <v>5155</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="17">
         <f t="shared" si="0"/>
-        <v>4433.25</v>
-      </c>
-      <c r="R5" s="1">
+        <v>5161.333333333333</v>
+      </c>
+      <c r="R5" s="14">
         <v>5169</v>
       </c>
       <c r="S5" s="1">
@@ -33480,53 +33489,56 @@
       <c r="A6" s="1">
         <v>29</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="16">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
         <v>4.29</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="9">
         <v>7</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="1">
         <v>40.840000000000003</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="1">
         <v>53.76</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="1">
         <v>38.89</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="1">
         <v>38.700000000000003</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="1">
         <v>38.6</v>
       </c>
-      <c r="M6" s="16">
+      <c r="L6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="1">
         <v>4790</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="1">
         <v>5553</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="1">
         <v>4787</v>
       </c>
       <c r="P6" s="1">
         <v>5383</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="17">
         <f t="shared" si="0"/>
         <v>5128.25</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="14">
         <v>4793</v>
       </c>
       <c r="S6" s="1">
@@ -33561,53 +33573,56 @@
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
         <v>0.63900000000000001</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="9">
         <v>4</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="1">
         <v>56.4</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="1">
         <v>57.32</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="1">
         <v>41.72</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="1">
         <v>42.18</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="1">
         <v>41.98</v>
       </c>
-      <c r="M7" s="16">
+      <c r="L7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="1">
         <v>4103</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="1">
         <v>5686</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="1">
         <v>5610</v>
       </c>
       <c r="P7" s="1">
         <v>4420</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="17">
         <f t="shared" si="0"/>
         <v>4954.75</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="13">
         <v>5626</v>
       </c>
       <c r="S7" s="1">
@@ -33642,53 +33657,56 @@
       <c r="A8" s="1">
         <v>22</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="16">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
         <v>3.3769999999999998</v>
       </c>
-      <c r="F8" s="18">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16">
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
         <v>66.98</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="1">
         <v>61.43</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="1">
         <v>44.04</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="1">
         <v>43.82</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="1">
         <v>43.96</v>
       </c>
-      <c r="M8" s="16">
+      <c r="L8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="1">
         <v>5852</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="1">
         <v>4753</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="1">
         <v>5894</v>
       </c>
       <c r="P8" s="1">
         <v>4754</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="17">
         <f t="shared" si="0"/>
         <v>5313.25</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="14">
         <v>4761</v>
       </c>
       <c r="S8" s="1">
@@ -33723,43 +33741,46 @@
       <c r="A9" s="1">
         <v>16</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="8">
         <v>2.4649999999999999</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="9">
         <v>6</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="1">
         <v>56.16</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="1">
         <v>55.55</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="1">
         <v>42.22</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="1">
         <v>42.82</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="1">
         <v>42.21</v>
       </c>
-      <c r="M9" s="16">
+      <c r="L9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="1">
         <v>5503</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="1">
         <v>5619</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="1">
         <v>5371</v>
       </c>
       <c r="P9" s="1">
@@ -33804,53 +33825,56 @@
       <c r="A10" s="1">
         <v>23</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="8">
         <v>3.3769999999999998</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="1">
         <v>60.92</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="1">
         <v>55.79</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="1">
         <v>44.02</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="1">
         <v>44</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="1">
         <v>44.08</v>
       </c>
-      <c r="M10" s="16">
+      <c r="L10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="1">
         <v>5161</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="1">
         <v>2779</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="1">
         <v>5026</v>
       </c>
       <c r="P10" s="1">
         <v>2326</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="17">
         <f t="shared" si="0"/>
         <v>3823</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="14">
         <v>5060</v>
       </c>
       <c r="S10" s="1">
@@ -33885,43 +33909,46 @@
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="16">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="8">
         <v>0.63900000000000001</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="9">
         <v>2</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="1">
         <v>55.48</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="1">
         <v>54.48</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="1">
         <v>43.02</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="1">
         <v>43.15</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="1">
         <v>43.39</v>
       </c>
-      <c r="M11" s="16">
+      <c r="L11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="1">
         <v>2238</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="1">
         <v>4865</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="1">
         <v>5607</v>
       </c>
       <c r="P11" s="1">
@@ -33966,53 +33993,56 @@
       <c r="A12" s="1">
         <v>30</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="8">
         <v>4.29</v>
       </c>
-      <c r="F12" s="18">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16">
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
         <v>75.67</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="1">
         <v>63.94</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="1">
         <v>45.84</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="1">
         <v>46.46</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="1">
         <v>46.21</v>
       </c>
-      <c r="M12" s="16">
+      <c r="L12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="1">
         <v>5877</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="1">
         <v>5718</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="1">
         <v>4734</v>
       </c>
       <c r="P12" s="1">
         <v>4757</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="17">
         <f t="shared" si="0"/>
         <v>5271.5</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="14">
         <v>4765</v>
       </c>
       <c r="S12" s="1">
@@ -34047,46 +34077,46 @@
       <c r="A13" s="1">
         <v>37</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="8">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="16" t="s">
+      <c r="F13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -34130,43 +34160,46 @@
       <c r="A14" s="1">
         <v>44</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="1">
         <v>7</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="8">
         <v>5.4770000000000003</v>
       </c>
-      <c r="F14" s="18">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16">
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
         <v>70.84</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="1">
         <v>62.79</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="1">
         <v>44.86</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="1">
         <v>45.88</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="1">
         <v>45.86</v>
       </c>
-      <c r="M14" s="16">
+      <c r="L14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="1">
         <v>5335</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="1">
         <v>5428</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="1">
         <v>5431</v>
       </c>
       <c r="P14" s="1">
@@ -34211,43 +34244,46 @@
       <c r="A15" s="1">
         <v>9</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="8">
         <v>1.552</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="9">
         <v>2</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="1">
         <v>72.45</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="1">
         <v>63.9</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="1">
         <v>45.41</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="1">
         <v>44.44</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="1">
         <v>45.18</v>
       </c>
-      <c r="M15" s="16">
+      <c r="L15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="1">
         <v>4463</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="1">
         <v>4489</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="1">
         <v>4497</v>
       </c>
       <c r="P15" s="1">
@@ -34292,43 +34328,46 @@
       <c r="A16" s="1">
         <v>17</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="8">
         <v>2.4649999999999999</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="1">
         <v>54.86</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="1">
         <v>55.43</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="1">
         <v>42.24</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="1">
         <v>42.02</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="1">
         <v>42.24</v>
       </c>
-      <c r="M16" s="16">
+      <c r="L16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="1">
         <v>4954</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="1">
         <v>4934</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="1">
         <v>6170</v>
       </c>
       <c r="P16" s="1">
@@ -34373,53 +34412,56 @@
       <c r="A17" s="1">
         <v>38</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="1">
         <v>6</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="1">
         <v>3</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="8">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F17" s="18">
-        <v>1</v>
-      </c>
-      <c r="G17" s="16">
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
         <v>49.91</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="1">
         <v>55.25</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="1">
         <v>39.9</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="1">
         <v>39.81</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="1">
         <v>39.49</v>
       </c>
-      <c r="M17" s="16">
+      <c r="L17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="1">
         <v>2770</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="1">
         <v>2805</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="1">
         <v>6246</v>
       </c>
       <c r="P17" s="1">
         <v>5165</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="17">
         <f t="shared" si="1"/>
         <v>4246.5</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="14">
         <v>5143</v>
       </c>
       <c r="S17" s="1">
@@ -34454,43 +34496,46 @@
       <c r="A18" s="1">
         <v>45</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="1">
         <v>17</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="1">
         <v>7</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="8">
         <v>5.4770000000000003</v>
       </c>
-      <c r="F18" s="18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16">
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
         <v>56.59</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="1">
         <v>57.3</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="1">
         <v>41.4</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="1">
         <v>41.72</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="1">
         <v>41.84</v>
       </c>
-      <c r="M18" s="16">
+      <c r="L18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="1">
         <v>5019</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="1">
         <v>6205</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="1">
         <v>4922</v>
       </c>
       <c r="P18" s="1">
@@ -34535,43 +34580,46 @@
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="16">
-        <v>1</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
         <v>3</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="8">
         <v>0.63900000000000001</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="9">
         <v>4</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="1">
         <v>65.98</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="1">
         <v>61.27</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="1">
         <v>45.01</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="1">
         <v>45.26</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="1">
         <v>44.49</v>
       </c>
-      <c r="M19" s="16">
+      <c r="L19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="1">
         <v>4649</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N19" s="1">
         <v>4681</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="1">
         <v>4822</v>
       </c>
       <c r="P19" s="1">
@@ -34616,43 +34664,46 @@
       <c r="A20" s="1">
         <v>31</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="1">
         <v>19</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="1">
         <v>5</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="1">
         <v>3</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="8">
         <v>4.29</v>
       </c>
-      <c r="F20" s="18">
-        <v>1</v>
-      </c>
-      <c r="G20" s="16">
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
         <v>53.44</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="1">
         <v>54.12</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="1">
         <v>41.81</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="1">
         <v>41</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="1">
         <v>41.59</v>
       </c>
-      <c r="M20" s="16">
+      <c r="L20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="1">
         <v>6355</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="1">
         <v>5244</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="1">
         <v>5334</v>
       </c>
       <c r="P20" s="1">
@@ -34697,43 +34748,46 @@
       <c r="A21" s="1">
         <v>10</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="1">
         <v>3</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="8">
         <v>1.552</v>
       </c>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16">
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
         <v>57.71</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="1">
         <v>58.54</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="1">
         <v>41.65</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="1">
         <v>41.75</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="1">
         <v>42.02</v>
       </c>
-      <c r="M21" s="16">
+      <c r="L21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="1">
         <v>6280</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="1">
         <v>5050</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O21" s="1">
         <v>5068</v>
       </c>
       <c r="P21" s="1">
@@ -34778,43 +34832,46 @@
       <c r="A22" s="1">
         <v>24</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="1">
         <v>21</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="1">
         <v>4</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="1">
         <v>3</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="8">
         <v>3.3769999999999998</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="9">
         <v>2</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="1">
         <v>63.1</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="1">
         <v>59.04</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="1">
         <v>43.05</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="1">
         <v>43.35</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="1">
         <v>43.25</v>
       </c>
-      <c r="M22" s="16">
+      <c r="L22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="1">
         <v>6317</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N22" s="1">
         <v>4909</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O22" s="1">
         <v>5272</v>
       </c>
       <c r="P22" s="1">
@@ -34859,43 +34916,46 @@
       <c r="A23" s="1">
         <v>4</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="1">
         <v>22</v>
       </c>
-      <c r="C23" s="16">
-        <v>1</v>
-      </c>
-      <c r="D23" s="16">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
         <v>4</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="8">
         <v>0.63900000000000001</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="9">
         <v>2</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="1">
         <v>67.05</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="1">
         <v>63.39</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="1">
         <v>44.08</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="1">
         <v>43.85</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="1">
         <v>44.05</v>
       </c>
-      <c r="M23" s="16">
+      <c r="L23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="1">
         <v>3325</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N23" s="1">
         <v>4017</v>
       </c>
-      <c r="O23" s="16">
+      <c r="O23" s="1">
         <v>3982</v>
       </c>
       <c r="P23" s="1">
@@ -34940,43 +35000,46 @@
       <c r="A24" s="1">
         <v>46</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="1">
         <v>23</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="1">
         <v>7</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="1">
         <v>4</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="8">
         <v>5.4770000000000003</v>
       </c>
-      <c r="F24" s="18">
-        <v>1</v>
-      </c>
-      <c r="G24" s="16">
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
         <v>71.040000000000006</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="1">
         <v>64.83</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="1">
         <v>44.07</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="1">
         <v>44.07</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="1">
         <v>43.9</v>
       </c>
-      <c r="M24" s="16">
+      <c r="L24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="1">
         <v>5221</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N24" s="1">
         <v>5245</v>
       </c>
-      <c r="O24" s="16">
+      <c r="O24" s="1">
         <v>5251</v>
       </c>
       <c r="P24" s="1">
@@ -35021,43 +35084,46 @@
       <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="1">
         <v>24</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="1">
         <v>4</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="1">
         <v>4</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="8">
         <v>3.3769999999999998</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="9">
         <v>2</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="1">
         <v>64.94</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="1">
         <v>61.05</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="1">
         <v>42.9</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="1">
         <v>42.8</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="1">
         <v>43.26</v>
       </c>
-      <c r="M25" s="16">
+      <c r="L25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="1">
         <v>4587</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N25" s="1">
         <v>4571</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O25" s="1">
         <v>4579</v>
       </c>
       <c r="P25" s="1">
@@ -35102,43 +35168,46 @@
       <c r="A26" s="1">
         <v>18</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="1">
         <v>25</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="1">
         <v>3</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="1">
         <v>4</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="8">
         <v>2.4649999999999999</v>
       </c>
-      <c r="F26" s="18">
-        <v>1</v>
-      </c>
-      <c r="G26" s="16">
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
         <v>62.4</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="1">
         <v>67.010000000000005</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="1">
         <v>42.32</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="1">
         <v>44.41</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="1">
         <v>42.48</v>
       </c>
-      <c r="M26" s="16">
+      <c r="L26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="1">
         <v>4584</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N26" s="1">
         <v>4504</v>
       </c>
-      <c r="O26" s="16">
+      <c r="O26" s="1">
         <v>4512</v>
       </c>
       <c r="P26" s="1">
@@ -35183,43 +35252,46 @@
       <c r="A27" s="1">
         <v>32</v>
       </c>
-      <c r="B27" s="16">
-        <v>26</v>
-      </c>
-      <c r="C27" s="16">
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
         <v>5</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="1">
         <v>4</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="8">
         <v>4.29</v>
       </c>
-      <c r="F27" s="18">
-        <v>1</v>
-      </c>
-      <c r="G27" s="16">
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
         <v>62.73</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="1">
         <v>58.64</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="1">
         <v>43.26</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="1">
         <v>43.03</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="1">
         <v>43.01</v>
       </c>
-      <c r="M27" s="16">
+      <c r="L27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="1">
         <v>5071</v>
       </c>
-      <c r="N27" s="16">
+      <c r="N27" s="1">
         <v>5028</v>
       </c>
-      <c r="O27" s="16">
+      <c r="O27" s="1">
         <v>6192</v>
       </c>
       <c r="P27" s="1">
@@ -35264,43 +35336,46 @@
       <c r="A28" s="1">
         <v>11</v>
       </c>
-      <c r="B28" s="16">
-        <v>27</v>
-      </c>
-      <c r="C28" s="16">
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
         <v>2</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="1">
         <v>4</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="8">
         <v>1.552</v>
       </c>
-      <c r="F28" s="18">
-        <v>1</v>
-      </c>
-      <c r="G28" s="16">
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
         <v>72.760000000000005</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="1">
         <v>67.16</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="1">
         <v>43.88</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="1">
         <v>44.81</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="1">
         <v>43.75</v>
       </c>
-      <c r="M28" s="16">
+      <c r="L28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="1">
         <v>4580</v>
       </c>
-      <c r="N28" s="16">
+      <c r="N28" s="1">
         <v>4477</v>
       </c>
-      <c r="O28" s="16">
+      <c r="O28" s="1">
         <v>3877</v>
       </c>
       <c r="P28" s="1">
@@ -35345,43 +35420,46 @@
       <c r="A29" s="1">
         <v>39</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="1">
         <v>28</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="1">
         <v>6</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="1">
         <v>4</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="8">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="9">
         <v>2</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="1">
         <v>57.07</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="1">
         <v>60.68</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="1">
         <v>43.34</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="1">
         <v>42.59</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="1">
         <v>42.53</v>
       </c>
-      <c r="M29" s="16">
+      <c r="L29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="1">
         <v>4880</v>
       </c>
-      <c r="N29" s="16">
+      <c r="N29" s="1">
         <v>4834</v>
       </c>
-      <c r="O29" s="16">
+      <c r="O29" s="1">
         <v>4788</v>
       </c>
       <c r="P29" s="1">
@@ -35426,43 +35504,46 @@
       <c r="A30" s="1">
         <v>12</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="1">
         <v>29</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="1">
         <v>5</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="8">
         <v>1.552</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="9">
         <v>2</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="1">
         <v>62.34</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="1">
         <v>63.08</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="1">
         <v>43.94</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="1">
         <v>43.88</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="1">
         <v>43.7</v>
       </c>
-      <c r="M30" s="16">
+      <c r="L30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="1">
         <v>4428</v>
       </c>
-      <c r="N30" s="16">
+      <c r="N30" s="1">
         <v>4418</v>
       </c>
-      <c r="O30" s="16">
+      <c r="O30" s="1">
         <v>4422</v>
       </c>
       <c r="P30" s="1">
@@ -35507,43 +35588,46 @@
       <c r="A31" s="1">
         <v>47</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="1">
         <v>30</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="1">
         <v>7</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="1">
         <v>5</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="8">
         <v>5.4770000000000003</v>
       </c>
-      <c r="F31" s="18">
-        <v>1</v>
-      </c>
-      <c r="G31" s="16">
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
         <v>57.44</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="1">
         <v>56.84</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="1">
         <v>42.15</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="1">
         <v>42.05</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="1">
         <v>42.37</v>
       </c>
-      <c r="M31" s="16">
+      <c r="L31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="1">
         <v>6430</v>
       </c>
-      <c r="N31" s="16">
+      <c r="N31" s="1">
         <v>2237</v>
       </c>
-      <c r="O31" s="16">
+      <c r="O31" s="1">
         <v>6418</v>
       </c>
       <c r="P31" s="1">
@@ -35588,43 +35672,46 @@
       <c r="A32" s="1">
         <v>26</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="1">
         <v>31</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="1">
         <v>4</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="1">
         <v>5</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="8">
         <v>3.3769999999999998</v>
       </c>
-      <c r="F32" s="18">
-        <v>1</v>
-      </c>
-      <c r="G32" s="16">
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
         <v>57.92</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="1">
         <v>55.34</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="1">
         <v>43.24</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="1">
         <v>43.1</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="1">
         <v>43.04</v>
       </c>
-      <c r="M32" s="16">
+      <c r="L32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="1">
         <v>4858</v>
       </c>
-      <c r="N32" s="16">
+      <c r="N32" s="1">
         <v>5062</v>
       </c>
-      <c r="O32" s="16">
+      <c r="O32" s="1">
         <v>4793</v>
       </c>
       <c r="P32" s="1">
@@ -35669,43 +35756,46 @@
       <c r="A33" s="1">
         <v>19</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="1">
         <v>32</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="1">
         <v>3</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="1">
         <v>5</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="8">
         <v>2.4649999999999999</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="9">
         <v>2</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="1">
         <v>57.41</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="1">
         <v>57.45</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="1">
         <v>42.58</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="1">
         <v>42.44</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="1">
         <v>42.52</v>
       </c>
-      <c r="M33" s="16">
+      <c r="L33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="1">
         <v>6010</v>
       </c>
-      <c r="N33" s="16">
+      <c r="N33" s="1">
         <v>4860</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O33" s="1">
         <v>4809</v>
       </c>
       <c r="P33" s="1">
@@ -35750,53 +35840,56 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="1">
         <v>33</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="1">
         <v>5</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="1">
         <v>5</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="8">
         <v>4.29</v>
       </c>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
-      <c r="G34" s="16">
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
         <v>66.55</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="1">
         <v>63.62</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="1">
         <v>42.61</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="1">
         <v>42.93</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="1">
         <v>42.28</v>
       </c>
-      <c r="M34" s="16">
+      <c r="L34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" s="1">
         <v>5513</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N34" s="1">
         <v>4003</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="1">
         <v>4000</v>
       </c>
       <c r="P34" s="1">
         <v>4925</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="17">
         <f t="shared" si="1"/>
         <v>4610.25</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R34" s="14">
         <v>4010</v>
       </c>
       <c r="S34" s="1">
@@ -35831,53 +35924,56 @@
       <c r="A35" s="1">
         <v>40</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="1">
         <v>34</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="1">
         <v>6</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="1">
         <v>5</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="8">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="9">
         <v>2</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="1">
         <v>57.91</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="1">
         <v>56.99</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="1">
         <v>42.31</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="1">
         <v>42.24</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="1">
         <v>42.36</v>
       </c>
-      <c r="M35" s="16">
+      <c r="L35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="1">
         <v>6579</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N35" s="1">
         <v>6029</v>
       </c>
-      <c r="O35" s="16">
+      <c r="O35" s="1">
         <v>5657</v>
       </c>
       <c r="P35" s="1">
         <v>5517</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="Q35" s="17">
         <f t="shared" si="1"/>
         <v>5945.5</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R35" s="14">
         <v>5550</v>
       </c>
       <c r="S35" s="1">
@@ -35912,43 +36008,46 @@
       <c r="A36" s="1">
         <v>5</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="1">
         <v>35</v>
       </c>
-      <c r="C36" s="16">
-        <v>1</v>
-      </c>
-      <c r="D36" s="16">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
         <v>5</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="8">
         <v>0.63900000000000001</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="9">
         <v>2</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="1">
         <v>69.209999999999994</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="1">
         <v>63.48</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="1">
         <v>44.63</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="1">
         <v>44.6</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="1">
         <v>44.33</v>
       </c>
-      <c r="M36" s="16">
+      <c r="L36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="1">
         <v>4505</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N36" s="1">
         <v>4535</v>
       </c>
-      <c r="O36" s="16">
+      <c r="O36" s="1">
         <v>3733</v>
       </c>
       <c r="P36" s="1">
@@ -35993,46 +36092,46 @@
       <c r="A37" s="1">
         <v>27</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="1">
         <v>36</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="1">
         <v>4</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="1">
         <v>6</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="8">
         <v>3.3769999999999998</v>
       </c>
-      <c r="F37" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="O37" s="16" t="s">
+      <c r="F37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P37" s="1" t="s">
@@ -36076,53 +36175,56 @@
       <c r="A38" s="1">
         <v>48</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="1">
         <v>37</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="1">
         <v>7</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="1">
         <v>6</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="8">
         <v>5.4770000000000003</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="9">
         <v>3</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="1">
         <v>68.89</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="1">
         <v>61.49</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="1">
         <v>45.08</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J38" s="1">
         <v>44.7</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="1">
         <v>44.88</v>
       </c>
-      <c r="M38" s="16">
+      <c r="L38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="1">
         <v>5041</v>
       </c>
-      <c r="N38" s="16">
+      <c r="N38" s="1">
         <v>5043</v>
       </c>
-      <c r="O38" s="16">
+      <c r="O38" s="1">
         <v>2772</v>
       </c>
       <c r="P38" s="1">
         <v>4966</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="Q38" s="17">
         <f t="shared" ref="Q38:Q50" si="2">AVERAGE(M38:P38)</f>
         <v>4455.5</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="14">
         <v>4993</v>
       </c>
       <c r="S38" s="1">
@@ -36157,53 +36259,56 @@
       <c r="A39" s="1">
         <v>20</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="1">
         <v>38</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="1">
         <v>3</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="1">
         <v>6</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="8">
         <v>2.4649999999999999</v>
       </c>
-      <c r="F39" s="18">
-        <v>1</v>
-      </c>
-      <c r="G39" s="16">
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
         <v>64.08</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="1">
         <v>61.56</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="1">
         <v>43.18</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="1">
         <v>43.04</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K39" s="1">
         <v>43.17</v>
       </c>
-      <c r="M39" s="16">
+      <c r="L39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="1">
         <v>2923</v>
       </c>
-      <c r="N39" s="16">
+      <c r="N39" s="1">
         <v>5559</v>
       </c>
-      <c r="O39" s="16">
+      <c r="O39" s="1">
         <v>2468</v>
       </c>
       <c r="P39" s="1">
         <v>2788</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="Q39" s="17">
         <f t="shared" si="2"/>
         <v>3434.5</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R39" s="14">
         <v>2784</v>
       </c>
       <c r="S39" s="1">
@@ -36238,43 +36343,46 @@
       <c r="A40" s="1">
         <v>41</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="1">
         <v>39</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="1">
         <v>6</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="1">
         <v>6</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="8">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F40" s="18">
-        <v>1</v>
-      </c>
-      <c r="G40" s="16">
+      <c r="F40" s="9">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
         <v>66.459999999999994</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="1">
         <v>60.48</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="1">
         <v>44.65</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J40" s="1">
         <v>44.48</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K40" s="1">
         <v>44.66</v>
       </c>
-      <c r="M40" s="16">
+      <c r="L40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="1">
         <v>4808</v>
       </c>
-      <c r="N40" s="16">
+      <c r="N40" s="1">
         <v>5914</v>
       </c>
-      <c r="O40" s="16">
+      <c r="O40" s="1">
         <v>4890</v>
       </c>
       <c r="P40" s="1">
@@ -36319,53 +36427,56 @@
       <c r="A41" s="1">
         <v>13</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="1">
         <v>40</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="1">
         <v>2</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="1">
         <v>6</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="8">
         <v>1.552</v>
       </c>
-      <c r="F41" s="18">
-        <v>1</v>
-      </c>
-      <c r="G41" s="16">
+      <c r="F41" s="9">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
         <v>71.14</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="1">
         <v>64.16</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="1">
         <v>44.86</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="1">
         <v>44.88</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="1">
         <v>44.73</v>
       </c>
-      <c r="M41" s="16">
+      <c r="L41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" s="1">
         <v>3862</v>
       </c>
-      <c r="N41" s="16">
+      <c r="N41" s="1">
         <v>5387</v>
       </c>
-      <c r="O41" s="16">
+      <c r="O41" s="1">
         <v>3847</v>
       </c>
       <c r="P41" s="1">
         <v>3886</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="Q41" s="17">
         <f t="shared" si="2"/>
         <v>4245.5</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41" s="14">
         <v>3870</v>
       </c>
       <c r="S41" s="1">
@@ -36400,43 +36511,46 @@
       <c r="A42" s="1">
         <v>6</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="1">
         <v>41</v>
       </c>
-      <c r="C42" s="16">
-        <v>1</v>
-      </c>
-      <c r="D42" s="16">
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
         <v>6</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="8">
         <v>0.63900000000000001</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="9">
         <v>2</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="1">
         <v>65.83</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="1">
         <v>62.68</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="1">
         <v>43.48</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J42" s="1">
         <v>43.46</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K42" s="1">
         <v>43.77</v>
       </c>
-      <c r="M42" s="16">
+      <c r="L42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" s="1">
         <v>4635</v>
       </c>
-      <c r="N42" s="16">
+      <c r="N42" s="1">
         <v>3718</v>
       </c>
-      <c r="O42" s="16">
+      <c r="O42" s="1">
         <v>4587</v>
       </c>
       <c r="P42" s="1">
@@ -36481,43 +36595,46 @@
       <c r="A43" s="1">
         <v>34</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="1">
         <v>42</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="1">
         <v>5</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="1">
         <v>6</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="8">
         <v>4.29</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="9">
         <v>2</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="1">
         <v>64.17</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="1">
         <v>61.67</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I43" s="1">
         <v>43.48</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="1">
         <v>42.86</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="1">
         <v>42.83</v>
       </c>
-      <c r="M43" s="16">
+      <c r="L43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="1">
         <v>5159</v>
       </c>
-      <c r="N43" s="16">
+      <c r="N43" s="1">
         <v>5926</v>
       </c>
-      <c r="O43" s="16">
+      <c r="O43" s="1">
         <v>4919</v>
       </c>
       <c r="P43" s="1">
@@ -36562,43 +36679,46 @@
       <c r="A44" s="1">
         <v>28</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="1">
         <v>43</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="1">
         <v>4</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="1">
         <v>7</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="8">
         <v>3.3769999999999998</v>
       </c>
-      <c r="F44" s="18">
-        <v>1</v>
-      </c>
-      <c r="G44" s="16">
+      <c r="F44" s="9">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
         <v>65.98</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H44" s="1">
         <v>59.96</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="1">
         <v>44.49</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J44" s="1">
         <v>44.47</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K44" s="1">
         <v>44.25</v>
       </c>
-      <c r="M44" s="16">
+      <c r="L44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" s="1">
         <v>4691</v>
       </c>
-      <c r="N44" s="16">
+      <c r="N44" s="1">
         <v>4629</v>
       </c>
-      <c r="O44" s="16">
+      <c r="O44" s="1">
         <v>4059</v>
       </c>
       <c r="P44" s="1">
@@ -36643,43 +36763,46 @@
       <c r="A45" s="1">
         <v>35</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="1">
         <v>44</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="1">
         <v>5</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="1">
         <v>7</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="8">
         <v>4.29</v>
       </c>
-      <c r="F45" s="18">
-        <v>1</v>
-      </c>
-      <c r="G45" s="16">
+      <c r="F45" s="9">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
         <v>66.930000000000007</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H45" s="1">
         <v>59.59</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I45" s="1">
         <v>45</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J45" s="1">
         <v>45.33</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="1">
         <v>45.14</v>
       </c>
-      <c r="M45" s="16">
+      <c r="L45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" s="1">
         <v>5163</v>
       </c>
-      <c r="N45" s="16">
+      <c r="N45" s="1">
         <v>5191</v>
       </c>
-      <c r="O45" s="16">
+      <c r="O45" s="1">
         <v>5151</v>
       </c>
       <c r="P45" s="1">
@@ -36724,43 +36847,46 @@
       <c r="A46" s="1">
         <v>14</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="1">
         <v>45</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="1">
         <v>2</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="1">
         <v>7</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="8">
         <v>1.552</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="9">
         <v>2</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="1">
         <v>73.13</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="1">
         <v>63.84</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="1">
         <v>45.33</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J46" s="1">
         <v>45.55</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K46" s="1">
         <v>45.26</v>
       </c>
-      <c r="M46" s="16">
+      <c r="L46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" s="1">
         <v>5880</v>
       </c>
-      <c r="N46" s="16">
+      <c r="N46" s="1">
         <v>5066</v>
       </c>
-      <c r="O46" s="16">
+      <c r="O46" s="1">
         <v>5023</v>
       </c>
       <c r="P46" s="1">
@@ -36805,43 +36931,46 @@
       <c r="A47" s="1">
         <v>7</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="1">
         <v>46</v>
       </c>
-      <c r="C47" s="16">
-        <v>1</v>
-      </c>
-      <c r="D47" s="16">
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
         <v>7</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="8">
         <v>0.63900000000000001</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="9">
         <v>7</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="1">
         <v>73.62</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="1">
         <v>60.75</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="1">
         <v>47.24</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J47" s="1">
         <v>47.08</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K47" s="1">
         <v>47.14</v>
       </c>
-      <c r="M47" s="16">
+      <c r="L47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" s="1">
         <v>5880</v>
       </c>
-      <c r="N47" s="16">
+      <c r="N47" s="1">
         <v>4609</v>
       </c>
-      <c r="O47" s="16">
+      <c r="O47" s="1">
         <v>4725</v>
       </c>
       <c r="P47" s="1">
@@ -36886,43 +37015,46 @@
       <c r="A48" s="1">
         <v>42</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="1">
         <v>47</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="1">
         <v>6</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="1">
         <v>7</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="8">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="9">
         <v>2</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="1">
         <v>59.47</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H48" s="1">
         <v>56.86</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I48" s="1">
         <v>43.14</v>
       </c>
-      <c r="J48" s="16">
+      <c r="J48" s="1">
         <v>43.12</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K48" s="1">
         <v>43.16</v>
       </c>
-      <c r="M48" s="16">
+      <c r="L48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" s="1">
         <v>5053</v>
       </c>
-      <c r="N48" s="16">
+      <c r="N48" s="1">
         <v>5016</v>
       </c>
-      <c r="O48" s="16">
+      <c r="O48" s="1">
         <v>5063</v>
       </c>
       <c r="P48" s="1">
@@ -36967,43 +37099,46 @@
       <c r="A49" s="1">
         <v>49</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="1">
         <v>48</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="1">
         <v>7</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="1">
         <v>7</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="8">
         <v>5.4770000000000003</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="9">
         <v>2</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="1">
         <v>59.46</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H49" s="1">
         <v>58.61</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="1">
         <v>43.3</v>
       </c>
-      <c r="J49" s="16">
+      <c r="J49" s="1">
         <v>42.46</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K49" s="1">
         <v>42.9</v>
       </c>
-      <c r="M49" s="16">
+      <c r="L49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" s="1">
         <v>5151</v>
       </c>
-      <c r="N49" s="16">
+      <c r="N49" s="1">
         <v>5153</v>
       </c>
-      <c r="O49" s="16">
+      <c r="O49" s="1">
         <v>5130</v>
       </c>
       <c r="P49" s="1">
@@ -37048,43 +37183,46 @@
       <c r="A50" s="1">
         <v>21</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="1">
         <v>49</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="1">
         <v>3</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="1">
         <v>7</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="8">
         <v>2.4649999999999999</v>
       </c>
-      <c r="F50" s="18">
-        <v>1</v>
-      </c>
-      <c r="G50" s="16">
+      <c r="F50" s="9">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
         <v>53.23</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H50" s="1">
         <v>55.01</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I50" s="1">
         <v>41.51</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J50" s="1">
         <v>41.32</v>
       </c>
-      <c r="K50" s="16">
+      <c r="K50" s="1">
         <v>41.25</v>
       </c>
-      <c r="M50" s="16">
+      <c r="L50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" s="1">
         <v>5325</v>
       </c>
-      <c r="N50" s="16">
+      <c r="N50" s="1">
         <v>5168</v>
       </c>
-      <c r="O50" s="16">
+      <c r="O50" s="1">
         <v>5177</v>
       </c>
       <c r="P50" s="1">
